--- a/Process Automation/Health First_1.xlsx
+++ b/Process Automation/Health First_1.xlsx
@@ -1,22 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovativedell\eclipse-workspace\Process Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F415A92-29E3-4CC2-B7C8-F7CD2CBFE7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Health First Fully Denied" sheetId="1" r:id="rId1"/>
-    <sheet name="Health First partially Denied" sheetId="2" r:id="rId2"/>
+    <sheet name="Health First Fully Denied" r:id="rId3" sheetId="1"/>
+    <sheet name="Health First partially Denied" r:id="rId4" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -177,10 +169,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -192,7 +185,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -207,476 +200,160 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -722,7 +399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -742,7 +419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -762,7 +439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -782,7 +459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -802,7 +479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -822,7 +499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -842,7 +519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -862,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -882,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -902,7 +579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -922,7 +599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -942,7 +619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -962,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -983,6 +660,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>